--- a/custwo.xlsx
+++ b/custwo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90132DC2-241E-4ECB-87B5-8F7F89E8DDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985B723-252E-4710-8703-0E8F35AE36AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
